--- a/bin/execution_specs.xlsx
+++ b/bin/execution_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87AB353-09C5-D24C-80BE-61C57BF2EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF19A2-C375-0A44-83D5-18DD4355DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30180" yWindow="13520" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="vols" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="trust" sheetId="4" r:id="rId3"/>
     <sheet name="ase" sheetId="7" r:id="rId4"/>
     <sheet name="bold" sheetId="5" r:id="rId5"/>
+    <sheet name="regionstats" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>pld</t>
   </si>
@@ -47,9 +48,6 @@
     <t>ld</t>
   </si>
   <si>
-    <t>tr</t>
-  </si>
-  <si>
     <t>hct</t>
   </si>
   <si>
@@ -84,6 +82,15 @@
   </si>
   <si>
     <t>freesurfer</t>
+  </si>
+  <si>
+    <t>hcat</t>
+  </si>
+  <si>
+    <t>omats</t>
+  </si>
+  <si>
+    <t>files</t>
   </si>
 </sst>
 </file>
@@ -456,25 +463,25 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -482,12 +489,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -497,28 +504,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33008A-07B3-1E40-9644-81936EE109B7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -526,7 +533,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -553,14 +560,6 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -581,18 +580,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -600,7 +599,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -613,30 +612,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6493A594-3F2E-DC4E-957B-B4F980A1A5B4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -650,27 +657,77 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05584E6E-7D86-9E47-A288-97EF0C258AF8}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>

--- a/bin/execution_specs.xlsx
+++ b/bin/execution_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF19A2-C375-0A44-83D5-18DD4355DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB86712-A145-9541-96EC-5713DE08C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="-32560" yWindow="10160" windowWidth="28800" windowHeight="17500" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="vols" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>pld</t>
   </si>
@@ -51,15 +51,6 @@
     <t>hct</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
@@ -84,20 +75,77 @@
     <t>freesurfer</t>
   </si>
   <si>
-    <t>hcat</t>
-  </si>
-  <si>
     <t>omats</t>
   </si>
   <si>
     <t>files</t>
+  </si>
+  <si>
+    <t>DORUN</t>
+  </si>
+  <si>
+    <t>usearg</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>guessed</t>
+  </si>
+  <si>
+    <t>labeff</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>artox</t>
+  </si>
+  <si>
+    <t>hbs</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ete</t>
+  </si>
+  <si>
+    <t>0,40,80,160</t>
+  </si>
+  <si>
+    <t>invert</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>te1</t>
+  </si>
+  <si>
+    <t>te2</t>
+  </si>
+  <si>
+    <t>rfon</t>
+  </si>
+  <si>
+    <t>vasoase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +163,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -142,10 +197,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,41 +516,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029FF257-3A6D-9843-B6C0-4421C6E24BE8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -504,62 +571,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33008A-07B3-1E40-9644-81936EE109B7}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -570,38 +664,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A2A88C-5AF9-204B-98AC-D5A25CF34AEF}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -612,38 +766,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6493A594-3F2E-DC4E-957B-B4F980A1A5B4}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4400</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -654,30 +882,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF54EB81-9BAD-984D-A707-8BF4097F61B5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -688,46 +927,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05584E6E-7D86-9E47-A288-97EF0C258AF8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>

--- a/bin/execution_specs.xlsx
+++ b/bin/execution_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB86712-A145-9541-96EC-5713DE08C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35511D15-585B-B044-A830-8651E6F16E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32560" yWindow="10160" windowWidth="28800" windowHeight="17500" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="-32560" yWindow="10160" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="vols" sheetId="2" r:id="rId1"/>
@@ -54,91 +54,91 @@
     <t>t1</t>
   </si>
   <si>
-    <t>pcasl</t>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>ase</t>
+  </si>
+  <si>
+    <t>cvr</t>
+  </si>
+  <si>
+    <t>subjid</t>
+  </si>
+  <si>
+    <t>freesurfer</t>
+  </si>
+  <si>
+    <t>omats</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>DORUN</t>
+  </si>
+  <si>
+    <t>usearg</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>arg</t>
+  </si>
+  <si>
+    <t>guessed</t>
+  </si>
+  <si>
+    <t>labeff</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>artox</t>
+  </si>
+  <si>
+    <t>hbs</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ete</t>
+  </si>
+  <si>
+    <t>0,40,80,160</t>
+  </si>
+  <si>
+    <t>invert</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>te1</t>
+  </si>
+  <si>
+    <t>te2</t>
+  </si>
+  <si>
+    <t>rfon</t>
+  </si>
+  <si>
+    <t>vasoase</t>
+  </si>
+  <si>
+    <t>asl</t>
   </si>
   <si>
     <t>aslm0</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>ase</t>
-  </si>
-  <si>
-    <t>cvr</t>
-  </si>
-  <si>
-    <t>subjid</t>
-  </si>
-  <si>
-    <t>freesurfer</t>
-  </si>
-  <si>
-    <t>omats</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>DORUN</t>
-  </si>
-  <si>
-    <t>usearg</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>arg</t>
-  </si>
-  <si>
-    <t>guessed</t>
-  </si>
-  <si>
-    <t>labeff</t>
-  </si>
-  <si>
-    <t>ttt</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>artox</t>
-  </si>
-  <si>
-    <t>hbs</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>ete</t>
-  </si>
-  <si>
-    <t>0,40,80,160</t>
-  </si>
-  <si>
-    <t>invert</t>
-  </si>
-  <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>te1</t>
-  </si>
-  <si>
-    <t>te2</t>
-  </si>
-  <si>
-    <t>rfon</t>
-  </si>
-  <si>
-    <t>vasoase</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029FF257-3A6D-9843-B6C0-4421C6E24BE8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -526,24 +526,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -556,12 +556,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -573,37 +573,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33008A-07B3-1E40-9644-81936EE109B7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -674,29 +674,29 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -776,29 +776,29 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>4400</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -892,29 +892,29 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -937,24 +937,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>

--- a/bin/execution_specs.xlsx
+++ b/bin/execution_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/mr_processing_tools/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35511D15-585B-B044-A830-8651E6F16E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F7AB9-FEAD-2C4E-BA84-1DA945E4E220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32560" yWindow="10160" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
+    <workbookView xWindow="-32560" yWindow="10160" windowWidth="28800" windowHeight="17500" xr2:uid="{AC4874B5-E69F-CA48-B508-76FD5CDA4C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="vols" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="trust" sheetId="4" r:id="rId3"/>
     <sheet name="ase" sheetId="7" r:id="rId4"/>
     <sheet name="bold" sheetId="5" r:id="rId5"/>
-    <sheet name="regionstats" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>pld</t>
   </si>
@@ -67,12 +66,6 @@
   </si>
   <si>
     <t>freesurfer</t>
-  </si>
-  <si>
-    <t>omats</t>
-  </si>
-  <si>
-    <t>files</t>
   </si>
   <si>
     <t>DORUN</t>
@@ -518,32 +511,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029FF257-3A6D-9843-B6C0-4421C6E24BE8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,37 +566,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33008A-07B3-1E40-9644-81936EE109B7}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -611,7 +604,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -643,7 +636,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -651,7 +644,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -674,24 +667,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -712,7 +705,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -720,7 +713,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -728,10 +721,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -739,7 +732,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -750,7 +743,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -776,24 +769,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -814,7 +807,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -822,7 +815,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>4400</v>
@@ -833,7 +826,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>64</v>
@@ -844,7 +837,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -855,7 +848,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -866,7 +859,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -892,24 +885,24 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,69 +910,6 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05584E6E-7D86-9E47-A288-97EF0C258AF8}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
     </row>
